--- a/medicine/Enfance/James_Krüss/James_Krüss.xlsx
+++ b/medicine/Enfance/James_Krüss/James_Krüss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>James_Kr%C3%BCss</t>
+          <t>James_Krüss</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Krüss (31 mai 1926 - 2 août 1997) est un poète et écrivain pour la jeunesse allemand.
 Il obtient le prestigieux prix international, le Prix Hans Christian Andersen catégorie Écriture, en 1968.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>James_Kr%C3%BCss</t>
+          <t>James_Krüss</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(la 1re date est celle de la parution en français)
 1969 : Le Chasseur d'étoiles et autres histoires (Der Leuchtturm auf den Hummerklippen, 1956) ; Paris, F. Nathan.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>James_Kr%C3%BCss</t>
+          <t>James_Krüss</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1962 : (international) « Honor List »[1], de l' IBBY, pour Mein Urgrossvater und ich
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1962 : (international) « Honor List », de l' IBBY, pour Mein Urgrossvater und ich
 1968 : Prix Hans Christian Andersen catégorie Écriture</t>
         </is>
       </c>
